--- a/data/trans_bre/P25A_8_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_8_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>7,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-16,29%</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-36,62%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32,57%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 5,21</t>
+          <t>-13,09; 4,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 13,27</t>
+          <t>1,91; 17,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 10,21</t>
+          <t>0,0; 11,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-13,22; 12,91</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>61,01%</t>
+          <t>-47,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,88%</t>
+          <t>-0,75%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-1,24%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14,93%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 12,04</t>
+          <t>-12,59; 5,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 9,13</t>
+          <t>-10,68; 8,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 11,36</t>
+          <t>-14,06; 10,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-70,57; 900,03</t>
+          <t>-14,64; 15,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-81,86; 763,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,91; 600,15</t>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-85,39; 380,6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-70,65; 361,47</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>152,19%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>180,92%</t>
+          <t>153,12%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>231,07%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-21,21%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 3,78</t>
+          <t>-7,05; 5,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 7,4</t>
+          <t>-3,83; 8,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 11,13</t>
+          <t>0,17; 14,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-86,33; 379,95</t>
+          <t>-12,42; 6,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,4; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,1; 1128,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-36,35; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-72,94; 138,33</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>360,51%</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-27,58%</t>
+          <t>459,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-44,47%</t>
+          <t>-42,12%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-51,76%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19,14%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 10,1</t>
+          <t>0,8; 11,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 3,06</t>
+          <t>-11,37; 3,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 1,96</t>
+          <t>-11,76; 1,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,89; —</t>
+          <t>-6,71; 8,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-79,92; 154,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-86,09; 76,9</t>
+          <t>-86,05; 123,89</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-91,63; 93,57</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-73,32; 392,11</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>178,46%</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>163,11%</t>
+          <t>79,38%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>300,48%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16,06%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>291,71%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 8,2</t>
+          <t>-4,28; 10,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 7,71</t>
+          <t>-0,76; 12,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 7,99</t>
+          <t>-17,39; 13,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-0,6; 19,12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-87,61; 483,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 722,99</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>135,98%</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-42,46%</t>
+          <t>-25,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>-30,17%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>483,67%</t>
         </is>
       </c>
     </row>
@@ -1042,30 +1168,40 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 6,78</t>
+          <t>-12,29; 4,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 2,1</t>
+          <t>-10,51; 3,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 15,54</t>
+          <t>0,0; 12,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>0,41; 21,96</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>85,24%</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>70,91%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>39,97%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>24,12%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>38,5%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,31</t>
+          <t>-1,94; 3,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 3,97</t>
+          <t>-1,49; 4,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,88</t>
+          <t>-2,67; 4,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 294,53</t>
+          <t>-1,82; 7,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 221,31</t>
+          <t>-42,91; 194,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 169,23</t>
+          <t>-31,36; 201,19</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-37,27; 156,96</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-20,01; 153,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25A_8_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_8_R2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,183 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,19</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,82</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,39</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-36,62%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>32,57%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.066288648919401</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>8.981546805620583</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.500706534329662</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.994575350509113</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.6147979466914857</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4250761589993489</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,09; 4,12</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,91; 17,75</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,82</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-13,22; 12,91</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-19.44561291102364</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.183167278674298</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-12.32123995679476</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.824591658856134</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>20.55415102364346</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>11.86201194048816</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>13.39985030299238</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,88</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,69</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-47,25%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-0,75%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-1,24%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>14,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-12,59; 5,02</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,68; 8,77</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-14,06; 10,98</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-14,64; 15,38</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-85,39; 380,6</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-70,65; 361,47</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.733459532660743</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.423073272631487</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.640524186485951</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.825041896450232</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.3488804394077084</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.07496565436475441</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.07558194892918783</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3996673691728695</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,13</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,28</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,2</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>9,72%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>153,12%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>231,07%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-21,21%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.654391892595218</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-9.07228752032276</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-11.80796407440385</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-10.9680191214713</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8527437981581543</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6343656480663628</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,05; 5,62</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 8,62</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 14,71</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-12,42; 6,2</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-36,35; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-72,94; 138,33</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.085302263095824</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.951207444293726</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.78316369917062</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>16.96338942282103</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>4.097549722888607</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.972016616852136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +811,185 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,66</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,33</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-3,93</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>459,69%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-42,12%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-51,76%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>19,14%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.1667075968183822</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.691907381338371</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.554608993100864</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.864757431648607</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.04786502458414698</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.138947214665283</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>2.526662152489701</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.263299933813443</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 11,82</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-11,37; 3,01</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-11,76; 1,89</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 8,74</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-86,05; 123,89</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-91,63; 93,57</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-73,32; 392,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.384584531192736</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.419861242160994</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4531591197201237</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-13.75554416499392</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.3515755053014262</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7527596710957468</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.318629651335741</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.03312124437155</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>14.61947352623083</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.613276143354544</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>1.501360224078552</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,03</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,51</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>8,03</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>79,38%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>300,48%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>16,06%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>291,71%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 10,39</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 12,49</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-17,39; 13,29</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,6; 19,12</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 722,99</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>5.565711500731934</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-4.942573327601785</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-4.127005447793131</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.9186353489139418</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>4.919458634867072</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.5122228842317982</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.5143664383273194</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1420158475856107</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,82</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>9,69</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-25,89%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-30,17%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>483,67%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.070711562288171</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-15.33221677620784</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-12.29478184031147</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-6.969503465317363</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.9074017133693807</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.9158884174794042</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.7513442734047853</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-12,29; 4,74</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-10,51; 3,62</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,3</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,41; 21,96</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>11.93242683923034</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.233765999553662</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.231090644579889</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.62863568151643</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>0.7460906384522032</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.9824682733498249</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.821723465281056</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +997,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,77</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>22,87%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>39,97%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>24,12%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>38,5%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>2.830844530717825</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>3.42245206176568</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1.023282228103117</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>8.247540971759058</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>1.012089206067809</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1.609984811112323</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.1017106924580945</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>3.189671393654207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,94; 3,5</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 4,45</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 4,98</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,82; 7,41</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-42,91; 194,91</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-31,36; 201,19</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-37,27; 156,96</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-20,01; 153,05</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-3.784658101630428</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-3.140447271846507</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-19.57016242858488</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0.07716040306709639</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>11.17461133017628</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>10.88510600792445</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>13.4507431006511</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>19.72990470617621</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="n">
+        <v>7.196711081779049</v>
+      </c>
+      <c r="J18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-0.2497777837671529</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.8463723805763382</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>2.598056050443298</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>8.408165950810103</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.09953636826816298</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.3393241053523259</v>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>3.570299282567233</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-8.416342381799698</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-10.59926590604475</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.637271292405258</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>4.663053520541739</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>3.371330386273395</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>11.13093404043297</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>19.57497753429177</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.8441412759688204</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.174773245316046</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.256197475505592</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>2.872701419532778</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.261361905222559</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.2817745537301568</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.2374517207208425</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.414861775964939</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.973825232935517</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.135881510545688</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.874738285203728</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-1.499369637525761</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.4158400563559668</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.3852068443571081</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.3870341418499225</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.179182756505205</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.45806747794548</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.341768068212057</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>4.959910155485496</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>7.259278472431436</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>2.012783531469379</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1.688877405005613</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1.559902646526942</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>1.572023535328037</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1269,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
